--- a/data/laundry_data.xlsx
+++ b/data/laundry_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4027,10 +4027,8 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3484</t>
-        </is>
+      <c r="D47" t="n">
+        <v>3484</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
@@ -4089,6 +4087,470 @@
         </is>
       </c>
       <c r="W47" t="inlineStr">
+        <is>
+          <t>samuel.huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>黃金昇</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>samuel.huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>黃金昇</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>samuel.huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>黃金昇</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>samuel.huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>黃金昇</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>samuel.huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>黃金昇</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>samuel.huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3484</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>黃金昇</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>董事長室</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
         <is>
           <t>samuel.huang</t>
         </is>
